--- a/library/export_pr15.xlsx
+++ b/library/export_pr15.xlsx
@@ -456,6 +456,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -466,91 +547,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,8 +871,8 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,10 +887,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="56"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -898,30 +898,30 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -931,11 +931,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -944,14 +944,14 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
@@ -960,32 +960,32 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
@@ -1377,115 +1377,115 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="40"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="44"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="42"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="46"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="42"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="46"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="38"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="43"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="48"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="44"/>
-      <c r="D63" s="45" t="s">
+      <c r="C63" s="49"/>
+      <c r="D63" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="45"/>
-      <c r="F63" s="46"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="51"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="49"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="54"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="29" t="s">
+      <c r="C65" s="55"/>
+      <c r="D65" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="29"/>
-      <c r="F65" s="30"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="57"/>
     </row>
     <row r="66" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="32" t="s">
+      <c r="C66" s="47"/>
+      <c r="D66" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="32"/>
-      <c r="F66" s="33"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="59"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="23">
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:F62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:F62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
